--- a/medicine/Médecine vétérinaire/Alimentation_du_chat/Alimentation_du_chat.xlsx
+++ b/medicine/Médecine vétérinaire/Alimentation_du_chat/Alimentation_du_chat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chat est un animal strictement carnivore.
 </t>
@@ -511,9 +523,11 @@
           <t>Système digestif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chat, comme tous les félins, est un carnivore strict, c'est-à-dire qu'il a uniquement besoin de viande pour survivre. Son système digestif est adapté à son régime alimentaire : les intestins sont courts et ont un cæcum rudimentaire[1]. Toutefois, le chat domestique s'est adapté à une nourriture plus variée car son canal digestif est proportionnellement plus long que celui du chat sauvage dont il est la sous-espèce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chat, comme tous les félins, est un carnivore strict, c'est-à-dire qu'il a uniquement besoin de viande pour survivre. Son système digestif est adapté à son régime alimentaire : les intestins sont courts et ont un cæcum rudimentaire. Toutefois, le chat domestique s'est adapté à une nourriture plus variée car son canal digestif est proportionnellement plus long que celui du chat sauvage dont il est la sous-espèce.
 Le processus de digestion est analogue à celui de l'homme : la viande est découpée, enduite de salive, puis passe dans l'estomac via l'œsophage ; la nourriture, réduite en bouillie, passe ensuite dans l'intestin grêle et le gros intestin où les nutriments sont absorbés, enfin les déchets sont évacués par l'anus et la vessie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Besoins énergétiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les besoins énergétiques d'un chat adulte s'évaluent selon son poids total : entre 60 et 70 kcal par kilogramme et par jour pour les chats les moins actifs et entre 80 et 90 kcal/kg pour les chats actifs[3]. Les chatons, à l’âge de cinq semaines, ont besoin de 250 kcal/kg. Les besoins diminuent avec la croissance du chaton, à 100 kcal/kg à 30 semaines et jusqu’à l’âge adulte vers 50 semaines. Les femelles en gestation ont besoin d’un apport quotidien de 90 à 100 kcal/kg de poids et les femelles allaitantes entre 90 et 270 kcal/kg, en fonction du nombre de chatons dans la portée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les besoins énergétiques d'un chat adulte s'évaluent selon son poids total : entre 60 et 70 kcal par kilogramme et par jour pour les chats les moins actifs et entre 80 et 90 kcal/kg pour les chats actifs. Les chatons, à l’âge de cinq semaines, ont besoin de 250 kcal/kg. Les besoins diminuent avec la croissance du chaton, à 100 kcal/kg à 30 semaines et jusqu’à l’âge adulte vers 50 semaines. Les femelles en gestation ont besoin d’un apport quotidien de 90 à 100 kcal/kg de poids et les femelles allaitantes entre 90 et 270 kcal/kg, en fonction du nombre de chatons dans la portée.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Besoins en nutriments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’un des nutriments les plus importants est la taurine. Il s’agit d’un dérivé d’acide aminé que le chat ne peut produire lui-même. L’expérience montre que les chats élevés avec une nourriture trop pauvre en taurine ont bien souvent des problèmes rétiniens. Dans les cas extrêmes, le chat peut même devenir aveugle[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’un des nutriments les plus importants est la taurine. Il s’agit d’un dérivé d’acide aminé que le chat ne peut produire lui-même. L’expérience montre que les chats élevés avec une nourriture trop pauvre en taurine ont bien souvent des problèmes rétiniens. Dans les cas extrêmes, le chat peut même devenir aveugle. 
 Le chat a aussi besoin d'apports en glucides et lipides.
 </t>
         </is>
